--- a/app/data/inputs/2021-02-28 План по варкам.xlsx
+++ b/app/data/inputs/2021-02-28 План по варкам.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arsenijkadaner/Yandex.Disk.localized/master/code/git/2020.10-umalat/umalat/app/data/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F3734C-D008-A541-850F-364EF402FEBE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8AC01A-3D99-F349-B99D-5FCBB09DEC8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="файл остатки" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3759" uniqueCount="718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3760" uniqueCount="718">
   <si>
     <t>Отчет от</t>
   </si>
@@ -50466,11 +50466,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMK120"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="16" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="Q1" sqref="Q1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J19" sqref="J19"/>
+      <selection pane="bottomRight" activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -52554,6 +52554,9 @@
         <v>-50</v>
       </c>
       <c r="K27" s="34"/>
+      <c r="L27" s="11" t="s">
+        <v>707</v>
+      </c>
       <c r="M27" s="35">
         <v>8000</v>
       </c>
@@ -57139,9 +57142,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AMK106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC9" sqref="AC9"/>
+    <sheetView topLeftCell="C1" zoomScale="150" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -58225,7 +58228,7 @@
         <v>207</v>
       </c>
       <c r="I15" s="38">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J15" s="11" t="str">
         <f t="shared" ref="J15" ca="1" si="34">IF(M15="", IF(O15="","",X15+(INDIRECT("S" &amp; ROW() - 1) - S15)),IF(O15="", "", INDIRECT("S" &amp; ROW() - 1) - S15))</f>
@@ -58242,7 +58245,7 @@
       </c>
       <c r="P15" s="1">
         <f t="shared" ref="P15" si="36">IF(O15 = "-", -W15,I15)</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q15" s="1">
         <f t="shared" ref="Q15" ca="1" si="37">IF(O15 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(P15)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(P15)))), 0)</f>
@@ -58304,7 +58307,7 @@
         <v>204</v>
       </c>
       <c r="I16" s="38">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="J16" s="11" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -58321,7 +58324,7 @@
       </c>
       <c r="P16" s="1">
         <f t="shared" si="12"/>
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q16" s="1">
         <f t="shared" ca="1" si="13"/>
